--- a/전기3학년-타자수행(200타).xlsx
+++ b/전기3학년-타자수행(200타).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="108" windowWidth="18888" windowHeight="8592"/>
+    <workbookView xWindow="192" yWindow="108" windowWidth="18888" windowHeight="8592" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="314" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,30 @@
   </si>
   <si>
     <t>박강현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조민재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정현도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍승우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 24일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -563,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -601,6 +625,15 @@
       <c r="A4">
         <v>31503</v>
       </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>264</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
@@ -716,7 +749,7 @@
         <v>31515</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>31516</v>
       </c>
@@ -730,17 +763,38 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>31517</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43579</v>
+      </c>
+      <c r="D18">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>31518</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43579</v>
+      </c>
+      <c r="D19">
+        <v>190</v>
+      </c>
+      <c r="E19">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>31519</v>
       </c>
@@ -754,9 +808,18 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>31520</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/전기3학년-타자수행(200타).xlsx
+++ b/전기3학년-타자수행(200타).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">04월 17일 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>권태용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4월24일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정현도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,7 +77,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4월 24일</t>
+    <t>통과여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">고현성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 원종현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최진웅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강영준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">김준환 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이준석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이창빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강빛찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권무경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김보성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김진용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안용준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양원준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장나근</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,138 +519,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B2">
         <v>31401</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43595</v>
+      </c>
+      <c r="E2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3">
         <v>31402</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4">
         <v>31403</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43595</v>
+      </c>
+      <c r="E4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5">
         <v>31404</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6">
         <v>31405</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7">
         <v>31406</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43595</v>
+      </c>
+      <c r="E7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B8">
         <v>31407</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43595</v>
+      </c>
+      <c r="E8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B9">
         <v>31408</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10">
         <v>31409</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11">
         <v>31410</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B12">
         <v>31411</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B13">
         <v>31412</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B14">
         <v>31413</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B15">
         <v>31414</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B16">
         <v>31415</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17">
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43595</v>
+      </c>
+      <c r="E16">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B17">
         <v>31416</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43595</v>
+      </c>
+      <c r="E17">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B18">
         <v>31417</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19">
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43595</v>
+      </c>
+      <c r="E18">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B19">
         <v>31418</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B20">
         <v>31419</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B21">
         <v>31420</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B22">
         <v>31421</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43595</v>
+      </c>
+      <c r="E22">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <f>COUNTA(A2:A22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <f>COUNTBLANK(A2:A22)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <f>A23+A24</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -585,241 +755,400 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B2">
         <v>31501</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43635</v>
+      </c>
+      <c r="E2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
         <v>31502</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43593</v>
+      </c>
+      <c r="E3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
         <v>31503</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43579</v>
+      </c>
+      <c r="E4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>31504</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43635</v>
+      </c>
+      <c r="E5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>31505</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43572</v>
+      </c>
+      <c r="E6">
+        <v>185</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43579</v>
+      </c>
+      <c r="G6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>31506</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43572</v>
+      </c>
+      <c r="E7">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>31507</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43635</v>
+      </c>
+      <c r="E8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>31508</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43572</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>31509</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43635</v>
+      </c>
+      <c r="E10">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>31510</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43572</v>
+      </c>
+      <c r="E11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>31511</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43635</v>
+      </c>
+      <c r="E12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>31512</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43635</v>
+      </c>
+      <c r="E13">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>31513</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43635</v>
+      </c>
+      <c r="E14">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>31514</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43572</v>
+      </c>
+      <c r="E15">
+        <v>185</v>
+      </c>
+      <c r="F15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>31515</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43635</v>
+      </c>
+      <c r="E16">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>31516</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43572</v>
+      </c>
+      <c r="E17">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>31517</v>
+      </c>
+      <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D18" s="1">
+        <v>43579</v>
+      </c>
+      <c r="E18">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>31518</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43579</v>
+      </c>
+      <c r="E19">
+        <v>190</v>
+      </c>
+      <c r="F19">
+        <v>192</v>
+      </c>
+      <c r="G19" s="1">
+        <v>43593</v>
+      </c>
+      <c r="H19">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>31519</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43572</v>
+      </c>
+      <c r="E20">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>31520</v>
+      </c>
+      <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>31504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>31505</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43572</v>
-      </c>
-      <c r="D6">
-        <v>185</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D21" s="1">
         <v>43579</v>
       </c>
-      <c r="F6">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>31506</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E21">
+        <v>188</v>
+      </c>
+      <c r="G21" s="1">
+        <v>43593</v>
+      </c>
+      <c r="H21">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <f>COUNTA(A2:A21)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <f>COUNTBLANK(A2:A21)</f>
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>31507</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>31508</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>43572</v>
-      </c>
-      <c r="D9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>31509</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>31510</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1">
-        <v>43572</v>
-      </c>
-      <c r="D11">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>31511</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>31512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>31513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>31514</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1">
-        <v>43572</v>
-      </c>
-      <c r="D15">
-        <v>185</v>
-      </c>
-      <c r="E15">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>31515</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>31516</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1">
-        <v>43572</v>
-      </c>
-      <c r="D17">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>31517</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
-        <v>43579</v>
-      </c>
-      <c r="D18">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>31518</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1">
-        <v>43579</v>
-      </c>
-      <c r="D19">
-        <v>190</v>
-      </c>
-      <c r="E19">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>31519</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1">
-        <v>43572</v>
-      </c>
-      <c r="D20">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>31520</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21">
-        <v>188</v>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <f>A22+A23</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/전기3학년-타자수행(200타).xlsx
+++ b/전기3학년-타자수행(200타).xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="192" yWindow="108" windowWidth="18888" windowHeight="8592" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="314" sheetId="1" r:id="rId1"/>
     <sheet name="315" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,13 +167,77 @@
   </si>
   <si>
     <t>장나근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강종희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김명석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">김성진 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박재형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">백승욱 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서찬우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신광민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임영진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전병현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정행곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -228,6 +297,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -275,7 +347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,7 +382,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,15 +594,15 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -547,7 +619,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
       <c r="B2">
         <v>31401</v>
       </c>
@@ -561,12 +636,27 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
       <c r="B3">
         <v>31402</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43637</v>
+      </c>
+      <c r="E3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
       <c r="B4">
         <v>31403</v>
       </c>
@@ -580,19 +670,39 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>31404</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43637</v>
+      </c>
+      <c r="E5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>31405</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43637</v>
+      </c>
+      <c r="E6">
+        <v>172</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
       <c r="B7">
         <v>31406</v>
       </c>
@@ -606,7 +716,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
       <c r="B8">
         <v>31407</v>
       </c>
@@ -620,44 +733,123 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
       <c r="B9">
         <v>31408</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43637</v>
+      </c>
+      <c r="E9">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
       <c r="B10">
         <v>31409</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43637</v>
+      </c>
+      <c r="E10">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
       <c r="B11">
         <v>31410</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43637</v>
+      </c>
+      <c r="E11">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
       <c r="B12">
         <v>31411</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43637</v>
+      </c>
+      <c r="E12">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>31412</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43637</v>
+      </c>
+      <c r="E13">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>31413</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43637</v>
+      </c>
+      <c r="E14">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
       <c r="B15">
         <v>31414</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43637</v>
+      </c>
+      <c r="E15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
       <c r="B16">
         <v>31415</v>
       </c>
@@ -671,7 +863,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
       <c r="B17">
         <v>31416</v>
       </c>
@@ -685,7 +880,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
       <c r="B18">
         <v>31417</v>
       </c>
@@ -699,23 +897,55 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
       <c r="B19">
         <v>31418</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43637</v>
+      </c>
+      <c r="E19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>31419</v>
       </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43637</v>
+      </c>
+      <c r="E20">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>31420</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43637</v>
+      </c>
+      <c r="E21">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
       <c r="B22">
         <v>31421</v>
       </c>
@@ -729,19 +959,19 @@
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>COUNTA(A2:A22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>COUNTBLANK(A2:A22)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>A23+A24</f>
         <v>21</v>
@@ -761,13 +991,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -784,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>31501</v>
       </c>
@@ -798,7 +1028,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -815,7 +1045,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -832,7 +1062,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>31504</v>
       </c>
@@ -846,7 +1076,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -869,7 +1099,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -886,7 +1116,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>31507</v>
       </c>
@@ -900,7 +1130,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -917,7 +1147,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>31509</v>
       </c>
@@ -931,7 +1161,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -948,7 +1178,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>31511</v>
       </c>
@@ -962,7 +1192,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -979,7 +1209,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -996,7 +1226,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1016,7 +1246,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1033,7 +1263,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1050,7 +1280,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1067,7 +1297,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1093,7 +1323,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1110,7 +1340,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1133,19 +1363,19 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>COUNTA(A2:A21)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>COUNTBLANK(A2:A21)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>A22+A23</f>
         <v>20</v>
@@ -1154,5 +1384,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>